--- a/IFB299 Presentation Folder (Final)/burndown chart.xlsx
+++ b/IFB299 Presentation Folder (Final)/burndown chart.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="28410"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="27011"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lukejohnt/Desktop/IFB299/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/maxim/Desktop/Team 104/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
     <t>Y Axis</t>
   </si>
@@ -36,6 +36,9 @@
   </si>
   <si>
     <t>sum of tasks estimates (days)</t>
+  </si>
+  <si>
+    <t>X Axis</t>
   </si>
 </sst>
 </file>
@@ -99,7 +102,7 @@
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="en-SG"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -352,11 +355,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="1833699696"/>
-        <c:axId val="1833701744"/>
+        <c:axId val="2116204480"/>
+        <c:axId val="2116201248"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1833699696"/>
+        <c:axId val="2116204480"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -399,7 +402,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1833701744"/>
+        <c:crossAx val="2116201248"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -407,7 +410,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1833701744"/>
+        <c:axId val="2116201248"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -458,7 +461,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1833699696"/>
+        <c:crossAx val="2116204480"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1382,8 +1385,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B15"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="125" workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+    <sheetView tabSelected="1" zoomScale="125" workbookViewId="0">
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1397,7 +1400,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
